--- a/PM,AMaPL/Labs/Labs.xlsx
+++ b/PM,AMaPL/Labs/Labs.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BSTU\3курс\3-2\PM,AMaPL\Labs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BSTU\3\3-2\PM,AMaPL\Labs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{09C4F894-21F8-4844-B3F9-89F703941973}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23ACA004-D2FB-4519-8200-4ADB89E69761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{685F6175-C15D-4F37-9157-ECB83DFD4D75}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="59">
   <si>
     <t>Цель работы: ознакомиться с методикой расчета скоростных параметров однолуче-вых лазерных сканирующих устройств на примере рекордера с фиолетовым лазером.</t>
   </si>
@@ -195,6 +195,99 @@
   </si>
   <si>
     <t>Re</t>
+  </si>
+  <si>
+    <t>q(м3/ч)</t>
+  </si>
+  <si>
+    <t>d1(мм)</t>
+  </si>
+  <si>
+    <t>d2(мм)</t>
+  </si>
+  <si>
+    <t>D1(мм)</t>
+  </si>
+  <si>
+    <t>D2(мм)</t>
+  </si>
+  <si>
+    <t>Nu</t>
+  </si>
+  <si>
+    <t>a1</t>
+  </si>
+  <si>
+    <t>a2</t>
+  </si>
+  <si>
+    <t>k1</t>
+  </si>
+  <si>
+    <t>Вт/(м2∙К)</t>
+  </si>
+  <si>
+    <t>Δt1</t>
+  </si>
+  <si>
+    <t>°C</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>m1(кг)</t>
+  </si>
+  <si>
+    <t>c1(кДж)</t>
+  </si>
+  <si>
+    <t>a3</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>Вт</t>
+  </si>
+  <si>
+    <t>Вт/(м2К)</t>
+  </si>
+  <si>
+    <t>м2</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>T01'(мин)</t>
+  </si>
+  <si>
+    <t>Δτ (мин)</t>
+  </si>
+  <si>
+    <t>l3</t>
+  </si>
+  <si>
+    <t>t2</t>
+  </si>
+  <si>
+    <t>m2</t>
+  </si>
+  <si>
+    <t>λстк Вт/(м·К)</t>
+  </si>
+  <si>
+    <t>W1 (Вт/К)</t>
+  </si>
+  <si>
+    <t>t'2</t>
+  </si>
+  <si>
+    <t>кг</t>
+  </si>
+  <si>
+    <t>м</t>
   </si>
 </sst>
 </file>
@@ -292,7 +385,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -476,11 +569,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -530,6 +660,28 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -547,6 +699,140 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="118494" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="TextBox 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F82952A-CB59-4B7D-A846-D36ED04F2E6F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9707880" y="1169670"/>
+              <a:ext cx="118494" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝜋</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="TextBox 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F82952A-CB59-4B7D-A846-D36ED04F2E6F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9707880" y="1169670"/>
+              <a:ext cx="118494" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝜋</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1004,10 +1290,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AC2C29B-397D-4C39-9AF4-668FAEA09AEE}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:S20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1015,9 +1301,11 @@
     <col min="1" max="1" width="23.88671875" customWidth="1"/>
     <col min="2" max="2" width="9.33203125" customWidth="1"/>
     <col min="3" max="3" width="22.44140625" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="72" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -1028,12 +1316,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D3" s="23" t="s">
         <v>23</v>
       </c>
@@ -1046,8 +1334,42 @@
       <c r="G3" s="24" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H3" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" s="26"/>
+      <c r="N3" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="O3" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="P3" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q3" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="R3" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="S3" s="25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D4" s="21">
         <v>33</v>
       </c>
@@ -1060,22 +1382,253 @@
       <c r="G4" s="22">
         <v>5.09</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H4" s="27">
+        <v>0.6</v>
+      </c>
+      <c r="I4" s="28">
+        <v>16</v>
+      </c>
+      <c r="J4" s="28">
+        <v>18</v>
+      </c>
+      <c r="K4" s="28">
+        <v>25</v>
+      </c>
+      <c r="L4" s="28">
+        <v>28</v>
+      </c>
+      <c r="M4" s="29">
+        <v>3.14</v>
+      </c>
+      <c r="N4" s="29">
+        <v>4.2</v>
+      </c>
+      <c r="O4" s="29">
+        <v>30</v>
+      </c>
+      <c r="P4" s="29">
+        <v>500</v>
+      </c>
+      <c r="Q4" s="29">
+        <v>20</v>
+      </c>
+      <c r="R4" s="29">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="S4" s="28">
+        <f>1000*N5*H5</f>
+        <v>700</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C5" s="9" t="s">
         <v>10</v>
       </c>
       <c r="F5">
-        <f>F4*1000000</f>
-        <v>770000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <f>F4/1000000</f>
+        <v>7.7000000000000004E-7</v>
+      </c>
+      <c r="H5" s="2">
+        <f>H4/3600</f>
+        <v>1.6666666666666666E-4</v>
+      </c>
+      <c r="I5" s="2">
+        <f>I4/1000</f>
+        <v>1.6E-2</v>
+      </c>
+      <c r="J5" s="2">
+        <f>J4/1000</f>
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="K5" s="2">
+        <f>K4/1000</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="L5" s="2">
+        <f>L4/1000</f>
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="N5" s="2">
+        <f>N4*1000</f>
+        <v>4200</v>
+      </c>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2">
+        <f>P4*60</f>
+        <v>30000</v>
+      </c>
+      <c r="Q5" s="2">
+        <f>Q4*60</f>
+        <v>1200</v>
+      </c>
+      <c r="R5" s="2">
+        <f>R4*1000</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C7" s="9" t="s">
         <v>27</v>
       </c>
+      <c r="D7">
+        <f>(4*H5)/(F5*M4*I5)</f>
+        <v>17233.297488074553</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="C8" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8">
+        <f>0.023*POWER(D7,0.8)*POWER(G4,0.43)</f>
+        <v>113.42562746920869</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="C9" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9">
+        <f>D8*(E4/I5)</f>
+        <v>4416.5103695823136</v>
+      </c>
+      <c r="E9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="C10" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10">
+        <f>D8*(E4/J5)</f>
+        <v>3925.786995184279</v>
+      </c>
+      <c r="E10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="C11" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11">
+        <f>1/((1/(D9*I5))+((1/(2*R5))*(LN(J5/I5)))+(1/(D10*J5)))</f>
+        <v>33.770562184515164</v>
+      </c>
+      <c r="E11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="C12" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12">
+        <f>D4-23</f>
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="C13" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13">
+        <f>N5*O4*((D12/Q5)+(D12/(2*P5)))</f>
+        <v>1071</v>
+      </c>
+      <c r="E13">
+        <v>1100</v>
+      </c>
+      <c r="F13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="C14" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14">
+        <f>300+(5*50)</f>
+        <v>550</v>
+      </c>
+      <c r="E14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="C15" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="E15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="C16" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16">
+        <f>E13/(S4*(98-(E13/(D14*D15))-23-(0.2*D12)))</f>
+        <v>5.5030572540300166E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C17" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17">
+        <f>S4/(D11*((1/D16)-1))</f>
+        <v>1.2071077069911735</v>
+      </c>
+      <c r="E17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C18" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18">
+        <f>1000*((M4*(POWER(K5,2)-POWER(J5,2)))/4)*D17</f>
+        <v>0.28522144454640957</v>
+      </c>
+      <c r="E18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C19" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19">
+        <f>33.2+((O4/D18)*(2*0.2-0.05))</f>
+        <v>70.013501231291542</v>
+      </c>
+      <c r="E19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C20" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20">
+        <f>(0.2*D12)+23+(E13/(D16*S4))</f>
+        <v>53.555555555555557</v>
+      </c>
+      <c r="E20" t="s">
+        <v>39</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/PM,AMaPL/Labs/Labs.xlsx
+++ b/PM,AMaPL/Labs/Labs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BSTU\3\3-2\PM,AMaPL\Labs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23ACA004-D2FB-4519-8200-4ADB89E69761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BCADF53-F528-407D-AD54-CB4CDFB11EEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{685F6175-C15D-4F37-9157-ECB83DFD4D75}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="66">
   <si>
     <t>Цель работы: ознакомиться с методикой расчета скоростных параметров однолуче-вых лазерных сканирующих устройств на примере рекордера с фиолетовым лазером.</t>
   </si>
@@ -288,6 +288,27 @@
   </si>
   <si>
     <t>м</t>
+  </si>
+  <si>
+    <t>N(Вт)</t>
+  </si>
+  <si>
+    <t>Nтабл(Вт)</t>
+  </si>
+  <si>
+    <t>l3(м)</t>
+  </si>
+  <si>
+    <t>m2(кг)</t>
+  </si>
+  <si>
+    <t>t2(°C)</t>
+  </si>
+  <si>
+    <t>t'2(°C)</t>
+  </si>
+  <si>
+    <t>Вывод: Холодильник не нужен, так как t'2 &lt; t2 и по расчетам, я получил  N = 1071Вт, значит округляем до 1100 Вт</t>
   </si>
 </sst>
 </file>
@@ -610,7 +631,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -683,6 +704,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -711,8 +735,8 @@
       <xdr:rowOff>72390</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="118494" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -754,6 +778,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -775,7 +800,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -1290,10 +1315,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AC2C29B-397D-4C39-9AF4-668FAEA09AEE}">
-  <dimension ref="A1:S20"/>
+  <dimension ref="A1:S23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1579,7 +1604,7 @@
         <v>5.5030572540300166E-2</v>
       </c>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C17" s="30" t="s">
         <v>51</v>
       </c>
@@ -1591,7 +1616,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C18" s="30" t="s">
         <v>53</v>
       </c>
@@ -1603,7 +1628,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C19" s="30" t="s">
         <v>52</v>
       </c>
@@ -1615,7 +1640,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C20" s="30" t="s">
         <v>56</v>
       </c>
@@ -1627,7 +1652,64 @@
         <v>39</v>
       </c>
     </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" s="33"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="H23" s="2">
+        <f>N5*O4*((D12/Q5)+(D12/(2*P5)))</f>
+        <v>1071</v>
+      </c>
+      <c r="I23" s="2">
+        <v>1100</v>
+      </c>
+      <c r="J23" s="2">
+        <f>S4/(D11*((1/D16)-1))</f>
+        <v>1.2071077069911735</v>
+      </c>
+      <c r="K23" s="2">
+        <f>1000*((M4*(POWER(K5,2)-POWER(J5,2)))/4)*D17</f>
+        <v>0.28522144454640957</v>
+      </c>
+      <c r="L23" s="2">
+        <f>33.2+((O4/D18)*(2*0.2-0.05))</f>
+        <v>70.013501231291542</v>
+      </c>
+      <c r="M23" s="2">
+        <f>(0.2*D12)+23+(E13/(D16*S4))</f>
+        <v>53.555555555555557</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A22:G22"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/PM,AMaPL/Labs/Labs.xlsx
+++ b/PM,AMaPL/Labs/Labs.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BSTU\3\3-2\PM,AMaPL\Labs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BCADF53-F528-407D-AD54-CB4CDFB11EEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{624E6565-79D6-4A70-8009-8D91EC9D0CFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{685F6175-C15D-4F37-9157-ECB83DFD4D75}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{685F6175-C15D-4F37-9157-ECB83DFD4D75}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="68">
   <si>
     <t>Цель работы: ознакомиться с методикой расчета скоростных параметров однолуче-вых лазерных сканирующих устройств на примере рекордера с фиолетовым лазером.</t>
   </si>
@@ -309,6 +310,13 @@
   </si>
   <si>
     <t>Вывод: Холодильник не нужен, так как t'2 &lt; t2 и по расчетам, я получил  N = 1071Вт, значит округляем до 1100 Вт</t>
+  </si>
+  <si>
+    <t>Лабораторная работа № 3
+Облучатель контактно-копировальной установки</t>
+  </si>
+  <si>
+    <t>Цель работы: изучить конструкцию и принцип действия 1) облучателя для экспони-рования в динамическом режиме; 2) устройства для прокопировки краев пленок.</t>
   </si>
 </sst>
 </file>
@@ -631,7 +639,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -707,6 +715,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1317,8 +1328,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AC2C29B-397D-4C39-9AF4-668FAEA09AEE}">
   <dimension ref="A1:S23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1713,4 +1724,57 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0701AA5-5D7B-4C84-AE47-68E81DF43EA6}">
+  <dimension ref="A1:O22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="72" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:O2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/PM,AMaPL/Labs/Labs.xlsx
+++ b/PM,AMaPL/Labs/Labs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BSTU\3\3-2\PM,AMaPL\Labs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{624E6565-79D6-4A70-8009-8D91EC9D0CFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9E01AAE-EBE5-4161-924F-42AC9FA48E51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{685F6175-C15D-4F37-9157-ECB83DFD4D75}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="86">
   <si>
     <t>Цель работы: ознакомиться с методикой расчета скоростных параметров однолуче-вых лазерных сканирующих устройств на примере рекордера с фиолетовым лазером.</t>
   </si>
@@ -316,14 +316,68 @@
 Облучатель контактно-копировальной установки</t>
   </si>
   <si>
-    <t>Цель работы: изучить конструкцию и принцип действия 1) облучателя для экспони-рования в динамическом режиме; 2) устройства для прокопировки краев пленок.</t>
+    <t>2 схема:</t>
+  </si>
+  <si>
+    <t>1 схема:</t>
+  </si>
+  <si>
+    <t>1 -</t>
+  </si>
+  <si>
+    <t>Электродвигатель</t>
+  </si>
+  <si>
+    <t>2 -</t>
+  </si>
+  <si>
+    <t>3 -</t>
+  </si>
+  <si>
+    <t>4 -</t>
+  </si>
+  <si>
+    <t>5 -</t>
+  </si>
+  <si>
+    <t>Муфта</t>
+  </si>
+  <si>
+    <t>Зубчатый одноступенчатый редуктор</t>
+  </si>
+  <si>
+    <t>Затвор</t>
+  </si>
+  <si>
+    <t>Червячный редуктор</t>
+  </si>
+  <si>
+    <t>Две ремные передачи (рулон между ними)</t>
+  </si>
+  <si>
+    <t>Цепная передача (разные размеры звездочек)</t>
+  </si>
+  <si>
+    <t>Затвор облучателя</t>
+  </si>
+  <si>
+    <t>Механизм раскатно-</t>
+  </si>
+  <si>
+    <t>рассеивающей пленки</t>
+  </si>
+  <si>
+    <t>Вывод: Былы изучены конструкции и принципы действий облучателя для экспонирования в динамическом режиме и устройства для прокопировки краев пленок.</t>
+  </si>
+  <si>
+    <t>Цель работы: изучить конструкцию и принцип действия 1) облучателя для экспонирования в динамическом режиме; 2) устройства для прокопировки краев пленок.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -399,6 +453,12 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -414,7 +474,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -635,11 +695,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -718,6 +787,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -868,6 +945,61 @@
     </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>163286</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>7775</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>182592</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C317A182-E360-469D-9D0A-CDC1202F9B11}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1632858" y="1080796"/>
+          <a:ext cx="4253203" cy="3588265"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1730,8 +1862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0701AA5-5D7B-4C84-AE47-68E81DF43EA6}">
   <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" zoomScale="98" workbookViewId="0">
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1749,7 +1881,7 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="34" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="B2" s="34"/>
       <c r="C2" s="34"/>
@@ -1766,15 +1898,152 @@
       <c r="N2" s="34"/>
       <c r="O2" s="34"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>17</v>
-      </c>
+    <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="J4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="K6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="J7" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="K7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="J8" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="K8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="K9" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="L9" s="36"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="J10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="K11" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="L11" s="38"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="K12" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="L12" s="38"/>
+      <c r="M12" s="38"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="J13" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="K13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I14" s="36"/>
+      <c r="J14" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="K14" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="L14" s="36"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="36"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="35"/>
+      <c r="M22" s="35"/>
+      <c r="N22" s="35"/>
+      <c r="O22" s="35"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
+    <mergeCell ref="A22:O22"/>
     <mergeCell ref="A2:O2"/>
   </mergeCells>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/PM,AMaPL/Labs/Labs.xlsx
+++ b/PM,AMaPL/Labs/Labs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BSTU\3\3-2\PM,AMaPL\Labs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9E01AAE-EBE5-4161-924F-42AC9FA48E51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2E8256D-21DF-4B5C-BC21-64C6C7B81A84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{685F6175-C15D-4F37-9157-ECB83DFD4D75}"/>
   </bookViews>
@@ -782,19 +782,19 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -954,21 +954,21 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>163286</xdr:rowOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>23326</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>7775</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>182592</xdr:rowOff>
+      <xdr:colOff>7776</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>42633</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C317A182-E360-469D-9D0A-CDC1202F9B11}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC1A4CBC-8024-4C76-B7F8-84E50AE3C3F2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -990,8 +990,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1632858" y="1080796"/>
-          <a:ext cx="4253203" cy="3588265"/>
+          <a:off x="1632858" y="1127448"/>
+          <a:ext cx="4253204" cy="3588267"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1796,15 +1796,15 @@
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="33" t="s">
+      <c r="A22" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="B22" s="33"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
       <c r="H22" s="2" t="s">
         <v>59</v>
       </c>
@@ -1863,7 +1863,7 @@
   <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1880,32 +1880,32 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
     </row>
     <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="36"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="J4" t="s">
@@ -1951,18 +1951,18 @@
       </c>
     </row>
     <row r="9" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="36"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="37" t="s">
+      <c r="A9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="K9" s="36" t="s">
+      <c r="K9" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="L9" s="36"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="36"/>
-      <c r="O9" s="36"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="33"/>
+      <c r="N9" s="33"/>
+      <c r="O9" s="33"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10">
@@ -1979,10 +1979,10 @@
       <c r="J11" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="K11" s="38" t="s">
+      <c r="K11" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="L11" s="38"/>
+      <c r="L11" s="35"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
@@ -1991,11 +1991,11 @@
       <c r="J12" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="K12" s="38" t="s">
+      <c r="K12" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="L12" s="38"/>
-      <c r="M12" s="38"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="35"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="J13" s="9" t="s">
@@ -2006,36 +2006,36 @@
       </c>
     </row>
     <row r="14" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I14" s="36"/>
-      <c r="J14" s="37" t="s">
+      <c r="I14" s="33"/>
+      <c r="J14" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="K14" s="36" t="s">
+      <c r="K14" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="L14" s="36"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="36"/>
-      <c r="O14" s="36"/>
+      <c r="L14" s="33"/>
+      <c r="M14" s="33"/>
+      <c r="N14" s="33"/>
+      <c r="O14" s="33"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A22" s="35" t="s">
+      <c r="A22" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="B22" s="35"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="35"/>
-      <c r="K22" s="35"/>
-      <c r="L22" s="35"/>
-      <c r="M22" s="35"/>
-      <c r="N22" s="35"/>
-      <c r="O22" s="35"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="37"/>
+      <c r="M22" s="37"/>
+      <c r="N22" s="37"/>
+      <c r="O22" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/PM,AMaPL/Labs/Labs.xlsx
+++ b/PM,AMaPL/Labs/Labs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BSTU\3\3-2\PM,AMaPL\Labs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F6C1520-B512-4364-B6B3-35E5F290B7C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1707E550-E37F-4256-9566-6447BD92AE78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7116" yWindow="180" windowWidth="15660" windowHeight="11820" firstSheet="3" activeTab="6" xr2:uid="{685F6175-C15D-4F37-9157-ECB83DFD4D75}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="7" xr2:uid="{685F6175-C15D-4F37-9157-ECB83DFD4D75}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="238">
   <si>
     <t>Цель работы: ознакомиться с методикой расчета скоростных параметров однолуче-вых лазерных сканирующих устройств на примере рекордера с фиолетовым лазером.</t>
   </si>
@@ -785,12 +785,118 @@
   <si>
     <t>τ(м)</t>
   </si>
+  <si>
+    <t>Формат издания (см) и доля листа</t>
+  </si>
+  <si>
+    <t>Количество стежков</t>
+  </si>
+  <si>
+    <t>Брошюрное простое шитье</t>
+  </si>
+  <si>
+    <t>Брошюрное переставное шитье</t>
+  </si>
+  <si>
+    <t>Переплетное переставное шитье</t>
+  </si>
+  <si>
+    <t>60x90/8</t>
+  </si>
+  <si>
+    <t>П</t>
+  </si>
+  <si>
+    <t>И</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>70x90/16</t>
+  </si>
+  <si>
+    <t>Модель</t>
+  </si>
+  <si>
+    <t>Формат сшиваемых тетрадей, см</t>
+  </si>
+  <si>
+    <t>Скорость работы, цикл/мин</t>
+  </si>
+  <si>
+    <t>Степень автоматизации и технологические возможности</t>
+  </si>
+  <si>
+    <t>наименьший</t>
+  </si>
+  <si>
+    <t>наибольший</t>
+  </si>
+  <si>
+    <t>23x30</t>
+  </si>
+  <si>
+    <t>БНШ-6А</t>
+  </si>
+  <si>
+    <t>11,5x17,5</t>
+  </si>
+  <si>
+    <t>Универсальный автомат</t>
+  </si>
+  <si>
+    <t>Страниц</t>
+  </si>
+  <si>
+    <t>Кол-во инструментов:</t>
+  </si>
+  <si>
+    <t>9.5/19</t>
+  </si>
+  <si>
+    <t>блок/час</t>
+  </si>
+  <si>
+    <t>цикл/мин</t>
+  </si>
+  <si>
+    <t>Длина стежков (мм):</t>
+  </si>
+  <si>
+    <t>Внутр./Внешн.</t>
+  </si>
+  <si>
+    <t>Кол-во тетрадных блоков:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Вывод: выбрана машина БНШ-6А, т.к. она подходит для работы с 2 разными форматами издания, требуется универсальная машина, потому что только она работает и с брошюрным переставным шитьем и с переплетным переставным шитьем, а автомат предподчит. полуавтомата. Пy1 = 334.65, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Пy2 =172.4 (блок/час).</t>
+    </r>
+  </si>
+  <si>
+    <t>Время изготовл. изделий:</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -896,6 +1002,21 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Symbol"/>
+      <family val="1"/>
+      <charset val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -929,7 +1050,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -1233,11 +1354,111 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1412,6 +1633,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1430,6 +1652,77 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -10118,15 +10411,15 @@
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="80" t="s">
+      <c r="A22" s="81" t="s">
         <v>65</v>
       </c>
-      <c r="B22" s="80"/>
-      <c r="C22" s="80"/>
-      <c r="D22" s="80"/>
-      <c r="E22" s="80"/>
-      <c r="F22" s="80"/>
-      <c r="G22" s="80"/>
+      <c r="B22" s="81"/>
+      <c r="C22" s="81"/>
+      <c r="D22" s="81"/>
+      <c r="E22" s="81"/>
+      <c r="F22" s="81"/>
+      <c r="G22" s="81"/>
       <c r="H22" s="2" t="s">
         <v>59</v>
       </c>
@@ -10202,23 +10495,23 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="83" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="82"/>
-      <c r="L2" s="82"/>
-      <c r="M2" s="82"/>
-      <c r="N2" s="82"/>
-      <c r="O2" s="82"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
+      <c r="M2" s="83"/>
+      <c r="N2" s="83"/>
+      <c r="O2" s="83"/>
     </row>
     <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I3" s="33"/>
@@ -10341,23 +10634,23 @@
       <c r="O14" s="33"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A22" s="81" t="s">
+      <c r="A22" s="82" t="s">
         <v>84</v>
       </c>
-      <c r="B22" s="81"/>
-      <c r="C22" s="81"/>
-      <c r="D22" s="81"/>
-      <c r="E22" s="81"/>
-      <c r="F22" s="81"/>
-      <c r="G22" s="81"/>
-      <c r="H22" s="81"/>
-      <c r="I22" s="81"/>
-      <c r="J22" s="81"/>
-      <c r="K22" s="81"/>
-      <c r="L22" s="81"/>
-      <c r="M22" s="81"/>
-      <c r="N22" s="81"/>
-      <c r="O22" s="81"/>
+      <c r="B22" s="82"/>
+      <c r="C22" s="82"/>
+      <c r="D22" s="82"/>
+      <c r="E22" s="82"/>
+      <c r="F22" s="82"/>
+      <c r="G22" s="82"/>
+      <c r="H22" s="82"/>
+      <c r="I22" s="82"/>
+      <c r="J22" s="82"/>
+      <c r="K22" s="82"/>
+      <c r="L22" s="82"/>
+      <c r="M22" s="82"/>
+      <c r="N22" s="82"/>
+      <c r="O22" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -10401,18 +10694,18 @@
       </c>
     </row>
     <row r="2" spans="1:155" x14ac:dyDescent="0.3">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="83" t="s">
         <v>109</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
     </row>
     <row r="4" spans="1:155" x14ac:dyDescent="0.3">
       <c r="B4" s="38" t="s">
@@ -15319,12 +15612,12 @@
         <v>150</v>
       </c>
       <c r="F25" s="20"/>
-      <c r="G25" s="83" t="s">
+      <c r="G25" s="84" t="s">
         <v>149</v>
       </c>
-      <c r="H25" s="83"/>
-      <c r="I25" s="83"/>
-      <c r="J25" s="83"/>
+      <c r="H25" s="84"/>
+      <c r="I25" s="84"/>
+      <c r="J25" s="84"/>
     </row>
     <row r="26" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="59" t="s">
@@ -15341,10 +15634,10 @@
         <v>148</v>
       </c>
       <c r="F26" s="18"/>
-      <c r="G26" s="84"/>
-      <c r="H26" s="84"/>
-      <c r="I26" s="84"/>
-      <c r="J26" s="84"/>
+      <c r="G26" s="85"/>
+      <c r="H26" s="85"/>
+      <c r="I26" s="85"/>
+      <c r="J26" s="85"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B27" s="59" t="s">
@@ -15362,11 +15655,11 @@
       </c>
       <c r="F27" s="12"/>
       <c r="G27" s="12"/>
-      <c r="H27" s="83" t="s">
+      <c r="H27" s="84" t="s">
         <v>147</v>
       </c>
-      <c r="I27" s="83"/>
-      <c r="J27" s="83"/>
+      <c r="I27" s="84"/>
+      <c r="J27" s="84"/>
     </row>
     <row r="28" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="60" t="s">
@@ -15384,9 +15677,9 @@
       </c>
       <c r="F28" s="18"/>
       <c r="G28" s="18"/>
-      <c r="H28" s="84"/>
-      <c r="I28" s="84"/>
-      <c r="J28" s="84"/>
+      <c r="H28" s="85"/>
+      <c r="I28" s="85"/>
+      <c r="J28" s="85"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B29" s="55" t="s">
@@ -15509,8 +15802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{569A440E-15AD-4FC0-8258-2C0DCC3D7B38}">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView zoomScale="69" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15521,11 +15814,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="86" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
       <c r="D1" s="2" t="s">
         <v>20</v>
       </c>
@@ -15870,30 +16163,30 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="85" t="s">
+      <c r="A23" s="86" t="s">
         <v>171</v>
       </c>
-      <c r="B23" s="85"/>
-      <c r="C23" s="85"/>
-      <c r="D23" s="85"/>
-      <c r="E23" s="85"/>
-      <c r="F23" s="85"/>
+      <c r="B23" s="86"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="86"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="85"/>
-      <c r="B24" s="85"/>
-      <c r="C24" s="85"/>
-      <c r="D24" s="85"/>
-      <c r="E24" s="85"/>
-      <c r="F24" s="85"/>
+      <c r="A24" s="86"/>
+      <c r="B24" s="86"/>
+      <c r="C24" s="86"/>
+      <c r="D24" s="86"/>
+      <c r="E24" s="86"/>
+      <c r="F24" s="86"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="85"/>
-      <c r="B25" s="85"/>
-      <c r="C25" s="85"/>
-      <c r="D25" s="85"/>
-      <c r="E25" s="85"/>
-      <c r="F25" s="85"/>
+      <c r="A25" s="86"/>
+      <c r="B25" s="86"/>
+      <c r="C25" s="86"/>
+      <c r="D25" s="86"/>
+      <c r="E25" s="86"/>
+      <c r="F25" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -15910,8 +16203,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8774D908-6420-446C-8FA4-16F2A97A46CB}">
   <dimension ref="A1:S30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15930,27 +16223,27 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="87" t="s">
         <v>173</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="86"/>
-      <c r="N2" s="86"/>
-      <c r="O2" s="86"/>
-      <c r="P2" s="86"/>
-      <c r="Q2" s="86"/>
-      <c r="R2" s="86"/>
-      <c r="S2" s="86"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
+      <c r="N2" s="87"/>
+      <c r="O2" s="87"/>
+      <c r="P2" s="87"/>
+      <c r="Q2" s="87"/>
+      <c r="R2" s="87"/>
+      <c r="S2" s="87"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="76" t="s">
@@ -16156,7 +16449,7 @@
       </c>
       <c r="B21">
         <f>60/B22</f>
-        <v>10.778443113772456</v>
+        <v>10.495626822157433</v>
       </c>
       <c r="C21" t="s">
         <v>195</v>
@@ -16168,7 +16461,7 @@
       </c>
       <c r="B22">
         <f>B23+B24+B25+B26+B27+B28</f>
-        <v>5.5666666666666664</v>
+        <v>5.7166666666666668</v>
       </c>
       <c r="C22" t="s">
         <v>194</v>
@@ -16201,8 +16494,8 @@
         <v>196</v>
       </c>
       <c r="B25">
-        <f>1/60</f>
-        <v>1.6666666666666666E-2</v>
+        <f>1/6</f>
+        <v>0.16666666666666666</v>
       </c>
       <c r="C25" t="s">
         <v>194</v>
@@ -16259,16 +16552,20 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C84F5DA-7344-4B0D-A248-40AD09FFF506}">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:AB25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="78" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
     <col min="2" max="2" width="9.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="12.77734375" customWidth="1"/>
+    <col min="6" max="6" width="9.77734375" customWidth="1"/>
+    <col min="7" max="7" width="9.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -16279,33 +16576,381 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A2" s="86" t="s">
+    <row r="2" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="87" t="s">
         <v>175</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="86"/>
-      <c r="N2" s="86"/>
-      <c r="O2" s="86"/>
-      <c r="P2" s="86"/>
-      <c r="Q2" s="86"/>
-      <c r="R2" s="86"/>
-      <c r="S2" s="86"/>
-      <c r="T2" s="86"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
+      <c r="N2" s="87"/>
+      <c r="O2" s="87"/>
+      <c r="P2" s="87"/>
+      <c r="Q2" s="87"/>
+      <c r="R2" s="87"/>
+      <c r="S2" s="87"/>
+      <c r="T2" s="87"/>
+    </row>
+    <row r="3" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="92" t="s">
+        <v>207</v>
+      </c>
+      <c r="C3" s="95" t="s">
+        <v>208</v>
+      </c>
+      <c r="D3" s="94"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="92" t="s">
+        <v>207</v>
+      </c>
+      <c r="G3" s="95" t="s">
+        <v>208</v>
+      </c>
+      <c r="H3" s="94"/>
+      <c r="I3" s="96"/>
+    </row>
+    <row r="4" spans="1:20" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="93"/>
+      <c r="C4" s="89" t="s">
+        <v>209</v>
+      </c>
+      <c r="D4" s="89" t="s">
+        <v>210</v>
+      </c>
+      <c r="E4" s="89" t="s">
+        <v>211</v>
+      </c>
+      <c r="F4" s="93"/>
+      <c r="G4" s="89" t="s">
+        <v>209</v>
+      </c>
+      <c r="H4" s="89" t="s">
+        <v>210</v>
+      </c>
+      <c r="I4" s="89" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="B5" s="90" t="s">
+        <v>212</v>
+      </c>
+      <c r="C5" s="91">
+        <v>5</v>
+      </c>
+      <c r="D5" s="91">
+        <v>5</v>
+      </c>
+      <c r="E5" s="91">
+        <v>5</v>
+      </c>
+      <c r="F5" s="98" t="s">
+        <v>217</v>
+      </c>
+      <c r="G5" s="99">
+        <v>4</v>
+      </c>
+      <c r="H5" s="99">
+        <v>4</v>
+      </c>
+      <c r="I5" s="99">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="D6">
+        <f>3*D5</f>
+        <v>15</v>
+      </c>
+      <c r="I6">
+        <f>6*I5</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="D7">
+        <f>2*D5</f>
+        <v>10</v>
+      </c>
+      <c r="I7">
+        <f>3*I5</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="D8">
+        <f>D5</f>
+        <v>5</v>
+      </c>
+      <c r="I8">
+        <f>2*I5</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A9" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A10" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A11" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="B11">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="97" t="s">
+        <v>179</v>
+      </c>
+      <c r="B12">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A13" s="30" t="s">
+        <v>216</v>
+      </c>
+      <c r="B13">
+        <v>16</v>
+      </c>
+      <c r="F13">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A14" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>115</v>
+      </c>
+      <c r="C14" t="s">
+        <v>232</v>
+      </c>
+      <c r="F14">
+        <v>115</v>
+      </c>
+      <c r="G14" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A15" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="B15">
+        <f>60*B14*B10*B11*B12/(B13+B9)</f>
+        <v>334.65000000000003</v>
+      </c>
+      <c r="C15" t="s">
+        <v>231</v>
+      </c>
+      <c r="F15">
+        <f>60*F14*B10*B11*B12/(F13+B9)</f>
+        <v>172.39545454545456</v>
+      </c>
+      <c r="G15" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="80"/>
+      <c r="B16" s="80"/>
+      <c r="C16" s="80"/>
+      <c r="D16" s="80"/>
+      <c r="E16" s="80"/>
+    </row>
+    <row r="17" spans="1:28" ht="65.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="100" t="s">
+        <v>218</v>
+      </c>
+      <c r="B17" s="95" t="s">
+        <v>219</v>
+      </c>
+      <c r="C17" s="96"/>
+      <c r="D17" s="92" t="s">
+        <v>220</v>
+      </c>
+      <c r="E17" s="92" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="101"/>
+      <c r="B18" s="89" t="s">
+        <v>222</v>
+      </c>
+      <c r="C18" s="89" t="s">
+        <v>223</v>
+      </c>
+      <c r="D18" s="93"/>
+      <c r="E18" s="93"/>
+    </row>
+    <row r="19" spans="1:28" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="98" t="s">
+        <v>225</v>
+      </c>
+      <c r="B19" s="102" t="s">
+        <v>226</v>
+      </c>
+      <c r="C19" s="102" t="s">
+        <v>224</v>
+      </c>
+      <c r="D19" s="98">
+        <v>115</v>
+      </c>
+      <c r="E19" s="99" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A20" s="105" t="s">
+        <v>228</v>
+      </c>
+      <c r="B20" s="108">
+        <v>80</v>
+      </c>
+      <c r="C20" s="103">
+        <v>640</v>
+      </c>
+      <c r="D20" s="103"/>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A21" s="106" t="s">
+        <v>235</v>
+      </c>
+      <c r="B21" s="110">
+        <f>B20/B13</f>
+        <v>5</v>
+      </c>
+      <c r="C21" s="112">
+        <f>C20/F13</f>
+        <v>20</v>
+      </c>
+      <c r="D21" s="112"/>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A22" s="107" t="s">
+        <v>229</v>
+      </c>
+      <c r="B22" s="110">
+        <f>SUM(D6:D8)</f>
+        <v>30</v>
+      </c>
+      <c r="C22" s="111">
+        <f>SUM(I6:I8)</f>
+        <v>44</v>
+      </c>
+      <c r="D22" s="111"/>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A23" s="116" t="s">
+        <v>233</v>
+      </c>
+      <c r="B23" s="114">
+        <v>19</v>
+      </c>
+      <c r="C23" s="107" t="s">
+        <v>230</v>
+      </c>
+      <c r="D23" s="115" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="104" t="s">
+        <v>237</v>
+      </c>
+      <c r="B24" s="109">
+        <f>B21/B15*3600</f>
+        <v>53.787539220080674</v>
+      </c>
+      <c r="C24" s="88">
+        <f>C21/F15*3600</f>
+        <v>417.64442217944998</v>
+      </c>
+      <c r="D24" s="88" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A25" s="113" t="s">
+        <v>236</v>
+      </c>
+      <c r="B25" s="113"/>
+      <c r="C25" s="113"/>
+      <c r="D25" s="113"/>
+      <c r="E25" s="113"/>
+      <c r="F25" s="113"/>
+      <c r="G25" s="113"/>
+      <c r="H25" s="113"/>
+      <c r="I25" s="113"/>
+      <c r="J25" s="113"/>
+      <c r="K25" s="113"/>
+      <c r="L25" s="113"/>
+      <c r="M25" s="113"/>
+      <c r="N25" s="113"/>
+      <c r="O25" s="113"/>
+      <c r="P25" s="113"/>
+      <c r="Q25" s="113"/>
+      <c r="R25" s="113"/>
+      <c r="S25" s="113"/>
+      <c r="T25" s="113"/>
+      <c r="U25" s="113"/>
+      <c r="V25" s="113"/>
+      <c r="W25" s="113"/>
+      <c r="X25" s="113"/>
+      <c r="Y25" s="113"/>
+      <c r="Z25" s="113"/>
+      <c r="AA25" s="113"/>
+      <c r="AB25" s="113"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="10">
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="A25:AB25"/>
     <mergeCell ref="A2:T2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/PM,AMaPL/Labs/Labs.xlsx
+++ b/PM,AMaPL/Labs/Labs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BSTU\3\3-2\PM,AMaPL\Labs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1707E550-E37F-4256-9566-6447BD92AE78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7E6862C-727E-4B15-A11C-A76F0CE2F4A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="7" xr2:uid="{685F6175-C15D-4F37-9157-ECB83DFD4D75}"/>
   </bookViews>
@@ -873,8 +873,11 @@
     <t>Кол-во тетрадных блоков:</t>
   </si>
   <si>
+    <t>Время изготовл. изделий:</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">Вывод: выбрана машина БНШ-6А, т.к. она подходит для работы с 2 разными форматами издания, требуется универсальная машина, потому что только она работает и с брошюрным переставным шитьем и с переплетным переставным шитьем, а автомат предподчит. полуавтомата. Пy1 = 334.65, </t>
+      <t xml:space="preserve">Вывод: выбрана машина БНШ-6А, т.к. она подходит для работы с 2 форматами издания, требуется универсальная машина, потому что только она работает и с брошюрным переставным шитьем и с переплетным переставным шитьем, а автомат предподчит. полуавтомата. Пy1 = 948.175, </t>
     </r>
     <r>
       <rPr>
@@ -885,11 +888,8 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Пy2 =172.4 (блок/час).</t>
+      <t>Пy2 =270.9 (блок/час).</t>
     </r>
-  </si>
-  <si>
-    <t>Время изготовл. изделий:</t>
   </si>
 </sst>
 </file>
@@ -1458,7 +1458,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1634,25 +1634,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1663,21 +1644,6 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1685,12 +1651,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1714,15 +1674,61 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -10411,15 +10417,15 @@
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="81" t="s">
+      <c r="A22" s="104" t="s">
         <v>65</v>
       </c>
-      <c r="B22" s="81"/>
-      <c r="C22" s="81"/>
-      <c r="D22" s="81"/>
-      <c r="E22" s="81"/>
-      <c r="F22" s="81"/>
-      <c r="G22" s="81"/>
+      <c r="B22" s="104"/>
+      <c r="C22" s="104"/>
+      <c r="D22" s="104"/>
+      <c r="E22" s="104"/>
+      <c r="F22" s="104"/>
+      <c r="G22" s="104"/>
       <c r="H22" s="2" t="s">
         <v>59</v>
       </c>
@@ -10495,23 +10501,23 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="106" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
-      <c r="J2" s="83"/>
-      <c r="K2" s="83"/>
-      <c r="L2" s="83"/>
-      <c r="M2" s="83"/>
-      <c r="N2" s="83"/>
-      <c r="O2" s="83"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="106"/>
+      <c r="K2" s="106"/>
+      <c r="L2" s="106"/>
+      <c r="M2" s="106"/>
+      <c r="N2" s="106"/>
+      <c r="O2" s="106"/>
     </row>
     <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I3" s="33"/>
@@ -10634,23 +10640,23 @@
       <c r="O14" s="33"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A22" s="82" t="s">
+      <c r="A22" s="105" t="s">
         <v>84</v>
       </c>
-      <c r="B22" s="82"/>
-      <c r="C22" s="82"/>
-      <c r="D22" s="82"/>
-      <c r="E22" s="82"/>
-      <c r="F22" s="82"/>
-      <c r="G22" s="82"/>
-      <c r="H22" s="82"/>
-      <c r="I22" s="82"/>
-      <c r="J22" s="82"/>
-      <c r="K22" s="82"/>
-      <c r="L22" s="82"/>
-      <c r="M22" s="82"/>
-      <c r="N22" s="82"/>
-      <c r="O22" s="82"/>
+      <c r="B22" s="105"/>
+      <c r="C22" s="105"/>
+      <c r="D22" s="105"/>
+      <c r="E22" s="105"/>
+      <c r="F22" s="105"/>
+      <c r="G22" s="105"/>
+      <c r="H22" s="105"/>
+      <c r="I22" s="105"/>
+      <c r="J22" s="105"/>
+      <c r="K22" s="105"/>
+      <c r="L22" s="105"/>
+      <c r="M22" s="105"/>
+      <c r="N22" s="105"/>
+      <c r="O22" s="105"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -10694,18 +10700,18 @@
       </c>
     </row>
     <row r="2" spans="1:155" x14ac:dyDescent="0.3">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="106" t="s">
         <v>109</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
-      <c r="J2" s="83"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="106"/>
     </row>
     <row r="4" spans="1:155" x14ac:dyDescent="0.3">
       <c r="B4" s="38" t="s">
@@ -15612,12 +15618,12 @@
         <v>150</v>
       </c>
       <c r="F25" s="20"/>
-      <c r="G25" s="84" t="s">
+      <c r="G25" s="107" t="s">
         <v>149</v>
       </c>
-      <c r="H25" s="84"/>
-      <c r="I25" s="84"/>
-      <c r="J25" s="84"/>
+      <c r="H25" s="107"/>
+      <c r="I25" s="107"/>
+      <c r="J25" s="107"/>
     </row>
     <row r="26" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="59" t="s">
@@ -15634,10 +15640,10 @@
         <v>148</v>
       </c>
       <c r="F26" s="18"/>
-      <c r="G26" s="85"/>
-      <c r="H26" s="85"/>
-      <c r="I26" s="85"/>
-      <c r="J26" s="85"/>
+      <c r="G26" s="108"/>
+      <c r="H26" s="108"/>
+      <c r="I26" s="108"/>
+      <c r="J26" s="108"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B27" s="59" t="s">
@@ -15655,11 +15661,11 @@
       </c>
       <c r="F27" s="12"/>
       <c r="G27" s="12"/>
-      <c r="H27" s="84" t="s">
+      <c r="H27" s="107" t="s">
         <v>147</v>
       </c>
-      <c r="I27" s="84"/>
-      <c r="J27" s="84"/>
+      <c r="I27" s="107"/>
+      <c r="J27" s="107"/>
     </row>
     <row r="28" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="60" t="s">
@@ -15677,9 +15683,9 @@
       </c>
       <c r="F28" s="18"/>
       <c r="G28" s="18"/>
-      <c r="H28" s="85"/>
-      <c r="I28" s="85"/>
-      <c r="J28" s="85"/>
+      <c r="H28" s="108"/>
+      <c r="I28" s="108"/>
+      <c r="J28" s="108"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B29" s="55" t="s">
@@ -15803,7 +15809,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView zoomScale="69" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15814,11 +15820,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="109" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
       <c r="D1" s="2" t="s">
         <v>20</v>
       </c>
@@ -15949,7 +15955,7 @@
         <v>4.9135577797998174E-2</v>
       </c>
       <c r="D10" s="73">
-        <f t="shared" si="0"/>
+        <f>C10*2*1000</f>
         <v>98.271155595996348</v>
       </c>
       <c r="E10" s="73">
@@ -16163,30 +16169,30 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="86" t="s">
+      <c r="A23" s="109" t="s">
         <v>171</v>
       </c>
-      <c r="B23" s="86"/>
-      <c r="C23" s="86"/>
-      <c r="D23" s="86"/>
-      <c r="E23" s="86"/>
-      <c r="F23" s="86"/>
+      <c r="B23" s="109"/>
+      <c r="C23" s="109"/>
+      <c r="D23" s="109"/>
+      <c r="E23" s="109"/>
+      <c r="F23" s="109"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="86"/>
-      <c r="B24" s="86"/>
-      <c r="C24" s="86"/>
-      <c r="D24" s="86"/>
-      <c r="E24" s="86"/>
-      <c r="F24" s="86"/>
+      <c r="A24" s="109"/>
+      <c r="B24" s="109"/>
+      <c r="C24" s="109"/>
+      <c r="D24" s="109"/>
+      <c r="E24" s="109"/>
+      <c r="F24" s="109"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="86"/>
-      <c r="B25" s="86"/>
-      <c r="C25" s="86"/>
-      <c r="D25" s="86"/>
-      <c r="E25" s="86"/>
-      <c r="F25" s="86"/>
+      <c r="A25" s="109"/>
+      <c r="B25" s="109"/>
+      <c r="C25" s="109"/>
+      <c r="D25" s="109"/>
+      <c r="E25" s="109"/>
+      <c r="F25" s="109"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -16203,8 +16209,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8774D908-6420-446C-8FA4-16F2A97A46CB}">
   <dimension ref="A1:S30"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16223,27 +16229,27 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="110" t="s">
         <v>173</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="87"/>
-      <c r="M2" s="87"/>
-      <c r="N2" s="87"/>
-      <c r="O2" s="87"/>
-      <c r="P2" s="87"/>
-      <c r="Q2" s="87"/>
-      <c r="R2" s="87"/>
-      <c r="S2" s="87"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="110"/>
+      <c r="N2" s="110"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="110"/>
+      <c r="Q2" s="110"/>
+      <c r="R2" s="110"/>
+      <c r="S2" s="110"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="76" t="s">
@@ -16554,8 +16560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C84F5DA-7344-4B0D-A248-40AD09FFF506}">
   <dimension ref="A1:AB25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="78" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="78" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:AB25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16566,6 +16572,7 @@
     <col min="4" max="4" width="12.77734375" customWidth="1"/>
     <col min="6" max="6" width="9.77734375" customWidth="1"/>
     <col min="7" max="7" width="9.5546875" customWidth="1"/>
+    <col min="10" max="10" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -16577,66 +16584,66 @@
       </c>
     </row>
     <row r="2" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="110" t="s">
         <v>175</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="87"/>
-      <c r="M2" s="87"/>
-      <c r="N2" s="87"/>
-      <c r="O2" s="87"/>
-      <c r="P2" s="87"/>
-      <c r="Q2" s="87"/>
-      <c r="R2" s="87"/>
-      <c r="S2" s="87"/>
-      <c r="T2" s="87"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="110"/>
+      <c r="N2" s="110"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="110"/>
+      <c r="Q2" s="110"/>
+      <c r="R2" s="110"/>
+      <c r="S2" s="110"/>
+      <c r="T2" s="110"/>
     </row>
     <row r="3" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="92" t="s">
+      <c r="B3" s="115" t="s">
         <v>207</v>
       </c>
-      <c r="C3" s="95" t="s">
+      <c r="C3" s="113" t="s">
         <v>208</v>
       </c>
-      <c r="D3" s="94"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="92" t="s">
+      <c r="D3" s="118"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="115" t="s">
         <v>207</v>
       </c>
-      <c r="G3" s="95" t="s">
+      <c r="G3" s="113" t="s">
         <v>208</v>
       </c>
-      <c r="H3" s="94"/>
-      <c r="I3" s="96"/>
+      <c r="H3" s="118"/>
+      <c r="I3" s="114"/>
     </row>
     <row r="4" spans="1:20" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="93"/>
-      <c r="C4" s="89" t="s">
+      <c r="B4" s="116"/>
+      <c r="C4" s="82" t="s">
         <v>209</v>
       </c>
-      <c r="D4" s="89" t="s">
+      <c r="D4" s="82" t="s">
         <v>210</v>
       </c>
-      <c r="E4" s="89" t="s">
+      <c r="E4" s="82" t="s">
         <v>211</v>
       </c>
-      <c r="F4" s="93"/>
-      <c r="G4" s="89" t="s">
+      <c r="F4" s="116"/>
+      <c r="G4" s="82" t="s">
         <v>209</v>
       </c>
-      <c r="H4" s="89" t="s">
+      <c r="H4" s="82" t="s">
         <v>210</v>
       </c>
-      <c r="I4" s="89" t="s">
+      <c r="I4" s="82" t="s">
         <v>211</v>
       </c>
     </row>
@@ -16644,28 +16651,28 @@
       <c r="A5" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="B5" s="90" t="s">
+      <c r="B5" s="83" t="s">
         <v>212</v>
       </c>
-      <c r="C5" s="91">
+      <c r="C5" s="84">
         <v>5</v>
       </c>
-      <c r="D5" s="91">
+      <c r="D5" s="84">
         <v>5</v>
       </c>
-      <c r="E5" s="91">
+      <c r="E5" s="84">
         <v>5</v>
       </c>
-      <c r="F5" s="98" t="s">
+      <c r="F5" s="86" t="s">
         <v>217</v>
       </c>
-      <c r="G5" s="99">
+      <c r="G5" s="87">
         <v>4</v>
       </c>
-      <c r="H5" s="99">
+      <c r="H5" s="87">
         <v>4</v>
       </c>
-      <c r="I5" s="99">
+      <c r="I5" s="87">
         <v>4</v>
       </c>
     </row>
@@ -16733,7 +16740,7 @@
       </c>
     </row>
     <row r="12" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="97" t="s">
+      <c r="A12" s="85" t="s">
         <v>179</v>
       </c>
       <c r="B12">
@@ -16745,10 +16752,12 @@
         <v>216</v>
       </c>
       <c r="B13">
-        <v>16</v>
+        <f>80/16</f>
+        <v>5</v>
       </c>
       <c r="F13">
-        <v>32</v>
+        <f>640/32</f>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
@@ -16774,14 +16783,14 @@
       </c>
       <c r="B15">
         <f>60*B14*B10*B11*B12/(B13+B9)</f>
-        <v>334.65000000000003</v>
+        <v>948.17500000000007</v>
       </c>
       <c r="C15" t="s">
         <v>231</v>
       </c>
       <c r="F15">
         <f>60*F14*B10*B11*B12/(F13+B9)</f>
-        <v>172.39545454545456</v>
+        <v>270.90714285714284</v>
       </c>
       <c r="G15" t="s">
         <v>231</v>
@@ -16795,162 +16804,167 @@
       <c r="E16" s="80"/>
     </row>
     <row r="17" spans="1:28" ht="65.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="100" t="s">
+      <c r="A17" s="111" t="s">
         <v>218</v>
       </c>
-      <c r="B17" s="95" t="s">
+      <c r="B17" s="113" t="s">
         <v>219</v>
       </c>
-      <c r="C17" s="96"/>
-      <c r="D17" s="92" t="s">
+      <c r="C17" s="114"/>
+      <c r="D17" s="115" t="s">
         <v>220</v>
       </c>
-      <c r="E17" s="92" t="s">
+      <c r="E17" s="115" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="18" spans="1:28" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="101"/>
-      <c r="B18" s="89" t="s">
+    <row r="18" spans="1:28" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="112"/>
+      <c r="B18" s="82" t="s">
         <v>222</v>
       </c>
-      <c r="C18" s="89" t="s">
+      <c r="C18" s="82" t="s">
         <v>223</v>
       </c>
-      <c r="D18" s="93"/>
-      <c r="E18" s="93"/>
-    </row>
-    <row r="19" spans="1:28" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="98" t="s">
+      <c r="D18" s="116"/>
+      <c r="E18" s="116"/>
+    </row>
+    <row r="19" spans="1:28" ht="114" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="86" t="s">
         <v>225</v>
       </c>
-      <c r="B19" s="102" t="s">
+      <c r="B19" s="88" t="s">
         <v>226</v>
       </c>
-      <c r="C19" s="102" t="s">
+      <c r="C19" s="88" t="s">
         <v>224</v>
       </c>
-      <c r="D19" s="98">
+      <c r="D19" s="86">
         <v>115</v>
       </c>
-      <c r="E19" s="99" t="s">
+      <c r="E19" s="86" t="s">
         <v>227</v>
       </c>
+      <c r="F19" s="102"/>
+      <c r="G19" s="102"/>
+      <c r="H19" s="102"/>
+      <c r="I19" s="102"/>
+      <c r="J19" s="103"/>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A20" s="105" t="s">
+      <c r="A20" s="91" t="s">
         <v>228</v>
       </c>
-      <c r="B20" s="108">
+      <c r="B20" s="94">
         <v>80</v>
       </c>
-      <c r="C20" s="103">
+      <c r="C20" s="89">
         <v>640</v>
       </c>
-      <c r="D20" s="103"/>
+      <c r="D20" s="89"/>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A21" s="106" t="s">
+      <c r="A21" s="92" t="s">
         <v>235</v>
       </c>
-      <c r="B21" s="110">
-        <f>B20/B13</f>
+      <c r="B21" s="96">
+        <f>80/16</f>
         <v>5</v>
       </c>
-      <c r="C21" s="112">
+      <c r="C21" s="98">
         <f>C20/F13</f>
-        <v>20</v>
-      </c>
-      <c r="D21" s="112"/>
+        <v>32</v>
+      </c>
+      <c r="D21" s="98"/>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A22" s="107" t="s">
+      <c r="A22" s="93" t="s">
         <v>229</v>
       </c>
-      <c r="B22" s="110">
+      <c r="B22" s="96">
         <f>SUM(D6:D8)</f>
         <v>30</v>
       </c>
-      <c r="C22" s="111">
+      <c r="C22" s="97">
         <f>SUM(I6:I8)</f>
         <v>44</v>
       </c>
-      <c r="D22" s="111"/>
+      <c r="D22" s="97"/>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A23" s="116" t="s">
+      <c r="A23" s="101" t="s">
         <v>233</v>
       </c>
-      <c r="B23" s="114">
+      <c r="B23" s="99">
         <v>19</v>
       </c>
-      <c r="C23" s="107" t="s">
+      <c r="C23" s="93" t="s">
         <v>230</v>
       </c>
-      <c r="D23" s="115" t="s">
+      <c r="D23" s="100" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="24" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="104" t="s">
+      <c r="A24" s="90" t="s">
+        <v>236</v>
+      </c>
+      <c r="B24" s="95">
+        <f>B21/B15*3600</f>
+        <v>18.983837371793179</v>
+      </c>
+      <c r="C24" s="81">
+        <f>C21/F15*3600</f>
+        <v>425.23795712816724</v>
+      </c>
+      <c r="D24" s="81" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A25" s="117" t="s">
         <v>237</v>
       </c>
-      <c r="B24" s="109">
-        <f>B21/B15*3600</f>
-        <v>53.787539220080674</v>
-      </c>
-      <c r="C24" s="88">
-        <f>C21/F15*3600</f>
-        <v>417.64442217944998</v>
-      </c>
-      <c r="D24" s="88" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A25" s="113" t="s">
-        <v>236</v>
-      </c>
-      <c r="B25" s="113"/>
-      <c r="C25" s="113"/>
-      <c r="D25" s="113"/>
-      <c r="E25" s="113"/>
-      <c r="F25" s="113"/>
-      <c r="G25" s="113"/>
-      <c r="H25" s="113"/>
-      <c r="I25" s="113"/>
-      <c r="J25" s="113"/>
-      <c r="K25" s="113"/>
-      <c r="L25" s="113"/>
-      <c r="M25" s="113"/>
-      <c r="N25" s="113"/>
-      <c r="O25" s="113"/>
-      <c r="P25" s="113"/>
-      <c r="Q25" s="113"/>
-      <c r="R25" s="113"/>
-      <c r="S25" s="113"/>
-      <c r="T25" s="113"/>
-      <c r="U25" s="113"/>
-      <c r="V25" s="113"/>
-      <c r="W25" s="113"/>
-      <c r="X25" s="113"/>
-      <c r="Y25" s="113"/>
-      <c r="Z25" s="113"/>
-      <c r="AA25" s="113"/>
-      <c r="AB25" s="113"/>
+      <c r="B25" s="117"/>
+      <c r="C25" s="117"/>
+      <c r="D25" s="117"/>
+      <c r="E25" s="117"/>
+      <c r="F25" s="117"/>
+      <c r="G25" s="117"/>
+      <c r="H25" s="117"/>
+      <c r="I25" s="117"/>
+      <c r="J25" s="117"/>
+      <c r="K25" s="117"/>
+      <c r="L25" s="117"/>
+      <c r="M25" s="117"/>
+      <c r="N25" s="117"/>
+      <c r="O25" s="117"/>
+      <c r="P25" s="117"/>
+      <c r="Q25" s="117"/>
+      <c r="R25" s="117"/>
+      <c r="S25" s="117"/>
+      <c r="T25" s="117"/>
+      <c r="U25" s="117"/>
+      <c r="V25" s="117"/>
+      <c r="W25" s="117"/>
+      <c r="X25" s="117"/>
+      <c r="Y25" s="117"/>
+      <c r="Z25" s="117"/>
+      <c r="AA25" s="117"/>
+      <c r="AB25" s="117"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A2:T2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:I3"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="D17:D18"/>
     <mergeCell ref="E17:E18"/>
     <mergeCell ref="A25:AB25"/>
-    <mergeCell ref="A2:T2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
